--- a/data/trans_orig/PCS12_SP_R2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/PCS12_SP_R2-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F2A3BB9-4DF5-4F6F-AAC7-3404DBFADE1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF120D2A-823C-4FA5-A638-0E30A099066A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{397DAE41-84CC-4251-AB8C-EF77E73EDC23}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{97E7BFCB-EBA2-46BA-AEA1-907385D08555}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="301">
   <si>
     <t>Población por debajo de la mediana de la puntuación del componente de salud física (SF12) en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -734,208 +734,214 @@
     <t>Población por debajo de la mediana de la puntuación del componente de salud física (SF12) en 2023 (Tasa respuesta: 99,38%)</t>
   </si>
   <si>
-    <t>67,65%</t>
+    <t>67,9%</t>
   </si>
   <si>
     <t>63,56%</t>
   </si>
   <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>76,89%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>74,94%</t>
-  </si>
-  <si>
-    <t>72,62%</t>
-  </si>
-  <si>
-    <t>77,03%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
   </si>
   <si>
     <t>36,44%</t>
   </si>
   <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>57,84%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>57,04%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>59,56%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>54,05%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>56,46%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>40,43%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
-  </si>
-  <si>
-    <t>59,57%</t>
-  </si>
-  <si>
-    <t>62,99%</t>
-  </si>
-  <si>
-    <t>58,63%</t>
-  </si>
-  <si>
-    <t>61,04%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>53,97%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>59,21%</t>
-  </si>
-  <si>
-    <t>50,59%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>50,35%</t>
-  </si>
-  <si>
-    <t>55,39%</t>
-  </si>
-  <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>49,41%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
-  </si>
-  <si>
-    <t>50,92%</t>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>49,1%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>52,07%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>56,28%</t>
+  </si>
+  <si>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>56,66%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>61,91%</t>
+  </si>
+  <si>
+    <t>59,2%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
+  </si>
+  <si>
+    <t>55,74%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>61,86%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
+  </si>
+  <si>
+    <t>63,58%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>50,14%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>54,74%</t>
+  </si>
+  <si>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>50,85%</t>
   </si>
 </sst>
 </file>
@@ -1347,7 +1353,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1898F692-847F-4E8E-B36E-221B960F65BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C18CB656-8CCB-42DB-BB36-B25F3DAF8B8C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1498,7 +1504,7 @@
         <v>1633</v>
       </c>
       <c r="N4" s="7">
-        <v>1640205</v>
+        <v>1640204</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1600,7 +1606,7 @@
         <v>2329</v>
       </c>
       <c r="N6" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1674,7 +1680,7 @@
         <v>1090</v>
       </c>
       <c r="D8" s="7">
-        <v>1122086</v>
+        <v>1122087</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1725,7 +1731,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1984,7 +1990,7 @@
         <v>1825</v>
       </c>
       <c r="D14" s="7">
-        <v>1881602</v>
+        <v>1881601</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>76</v>
@@ -1999,7 +2005,7 @@
         <v>1428</v>
       </c>
       <c r="I14" s="7">
-        <v>1451251</v>
+        <v>1451250</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>79</v>
@@ -2014,7 +2020,7 @@
         <v>3253</v>
       </c>
       <c r="N14" s="7">
-        <v>3332851</v>
+        <v>3332852</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>82</v>
@@ -2035,7 +2041,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2050,7 +2056,7 @@
         <v>3297</v>
       </c>
       <c r="I15" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2065,7 +2071,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2098,7 +2104,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECC07D59-CD5A-4941-B4BE-36E210A397FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACB09088-4245-4E12-8173-7FD667F55F54}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2285,7 +2291,7 @@
         <v>329</v>
       </c>
       <c r="I5" s="7">
-        <v>351569</v>
+        <v>351570</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>99</v>
@@ -2336,7 +2342,7 @@
         <v>1247</v>
       </c>
       <c r="I6" s="7">
-        <v>1337796</v>
+        <v>1337797</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2559,7 +2565,7 @@
         <v>283</v>
       </c>
       <c r="N10" s="7">
-        <v>315514</v>
+        <v>315515</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>129</v>
@@ -2661,7 +2667,7 @@
         <v>850</v>
       </c>
       <c r="N12" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2849,7 +2855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A9EA6BE-B9B7-4241-90B4-759A473BF5BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6659645F-323F-4F2E-8C8E-2222AB34D3A9}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3361,7 +3367,7 @@
         <v>733</v>
       </c>
       <c r="N11" s="7">
-        <v>772221</v>
+        <v>772222</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>209</v>
@@ -3412,7 +3418,7 @@
         <v>1027</v>
       </c>
       <c r="N12" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3600,7 +3606,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F890919E-1135-4019-96FE-6D25669FB156}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908F3A8-24BB-48FC-B67E-8C7F694913E6}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3721,7 +3727,7 @@
         <v>483</v>
       </c>
       <c r="D4" s="7">
-        <v>363218</v>
+        <v>346564</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>231</v>
@@ -3736,7 +3742,7 @@
         <v>1153</v>
       </c>
       <c r="I4" s="7">
-        <v>657375</v>
+        <v>595169</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>234</v>
@@ -3751,7 +3757,7 @@
         <v>1636</v>
       </c>
       <c r="N4" s="7">
-        <v>1020593</v>
+        <v>941732</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>237</v>
@@ -3772,7 +3778,7 @@
         <v>202</v>
       </c>
       <c r="D5" s="7">
-        <v>173669</v>
+        <v>163832</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>240</v>
@@ -3787,7 +3793,7 @@
         <v>254</v>
       </c>
       <c r="I5" s="7">
-        <v>167668</v>
+        <v>150387</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>243</v>
@@ -3802,7 +3808,7 @@
         <v>456</v>
       </c>
       <c r="N5" s="7">
-        <v>341337</v>
+        <v>314219</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>246</v>
@@ -3823,7 +3829,7 @@
         <v>685</v>
       </c>
       <c r="D6" s="7">
-        <v>536887</v>
+        <v>510396</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3838,7 +3844,7 @@
         <v>1407</v>
       </c>
       <c r="I6" s="7">
-        <v>825043</v>
+        <v>745556</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3853,7 +3859,7 @@
         <v>2092</v>
       </c>
       <c r="N6" s="7">
-        <v>1361930</v>
+        <v>1255951</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3876,7 +3882,7 @@
         <v>938</v>
       </c>
       <c r="D7" s="7">
-        <v>924900</v>
+        <v>1093457</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>249</v>
@@ -3891,7 +3897,7 @@
         <v>1553</v>
       </c>
       <c r="I7" s="7">
-        <v>1094966</v>
+        <v>1122737</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>252</v>
@@ -3906,7 +3912,7 @@
         <v>2491</v>
       </c>
       <c r="N7" s="7">
-        <v>2019866</v>
+        <v>2216194</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>255</v>
@@ -3927,7 +3933,7 @@
         <v>1045</v>
       </c>
       <c r="D8" s="7">
-        <v>1227832</v>
+        <v>1188089</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>258</v>
@@ -3942,7 +3948,7 @@
         <v>1358</v>
       </c>
       <c r="I8" s="7">
-        <v>1148304</v>
+        <v>1109359</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>261</v>
@@ -3957,7 +3963,7 @@
         <v>2403</v>
       </c>
       <c r="N8" s="7">
-        <v>2376136</v>
+        <v>2297448</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>264</v>
@@ -3978,7 +3984,7 @@
         <v>1983</v>
       </c>
       <c r="D9" s="7">
-        <v>2152732</v>
+        <v>2281546</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3993,7 +3999,7 @@
         <v>2911</v>
       </c>
       <c r="I9" s="7">
-        <v>2243270</v>
+        <v>2232096</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4008,7 +4014,7 @@
         <v>4894</v>
       </c>
       <c r="N9" s="7">
-        <v>4396002</v>
+        <v>4513642</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4031,7 +4037,7 @@
         <v>312</v>
       </c>
       <c r="D10" s="7">
-        <v>284122</v>
+        <v>273520</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>267</v>
@@ -4046,7 +4052,7 @@
         <v>455</v>
       </c>
       <c r="I10" s="7">
-        <v>287350</v>
+        <v>268271</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>270</v>
@@ -4055,13 +4061,13 @@
         <v>271</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>256</v>
+        <v>139</v>
       </c>
       <c r="M10" s="7">
         <v>767</v>
       </c>
       <c r="N10" s="7">
-        <v>571471</v>
+        <v>541791</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>272</v>
@@ -4070,7 +4076,7 @@
         <v>273</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>152</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4082,46 +4088,46 @@
         <v>367</v>
       </c>
       <c r="D11" s="7">
-        <v>386596</v>
+        <v>370941</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H11" s="7">
         <v>546</v>
       </c>
       <c r="I11" s="7">
-        <v>423298</v>
+        <v>389318</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>266</v>
+        <v>148</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M11" s="7">
         <v>913</v>
       </c>
       <c r="N11" s="7">
-        <v>809895</v>
+        <v>760259</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>144</v>
+        <v>281</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4133,7 +4139,7 @@
         <v>679</v>
       </c>
       <c r="D12" s="7">
-        <v>670718</v>
+        <v>644461</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4148,7 +4154,7 @@
         <v>1001</v>
       </c>
       <c r="I12" s="7">
-        <v>710648</v>
+        <v>657589</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4163,7 +4169,7 @@
         <v>1680</v>
       </c>
       <c r="N12" s="7">
-        <v>1381366</v>
+        <v>1302050</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4186,46 +4192,46 @@
         <v>1733</v>
       </c>
       <c r="D13" s="7">
-        <v>1572241</v>
+        <v>1713541</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H13" s="7">
         <v>3161</v>
       </c>
       <c r="I13" s="7">
-        <v>2039690</v>
+        <v>1986176</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M13" s="7">
         <v>4894</v>
       </c>
       <c r="N13" s="7">
-        <v>3611931</v>
+        <v>3699717</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4237,46 +4243,46 @@
         <v>1614</v>
       </c>
       <c r="D14" s="7">
-        <v>1788097</v>
+        <v>1722862</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="H14" s="7">
         <v>2158</v>
       </c>
       <c r="I14" s="7">
-        <v>1739270</v>
+        <v>1649064</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M14" s="7">
         <v>3772</v>
       </c>
       <c r="N14" s="7">
-        <v>3527367</v>
+        <v>3371926</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4288,7 +4294,7 @@
         <v>3347</v>
       </c>
       <c r="D15" s="7">
-        <v>3360338</v>
+        <v>3436403</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4303,7 +4309,7 @@
         <v>5319</v>
       </c>
       <c r="I15" s="7">
-        <v>3778960</v>
+        <v>3635240</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4318,7 +4324,7 @@
         <v>8666</v>
       </c>
       <c r="N15" s="7">
-        <v>7139298</v>
+        <v>7071643</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
